--- a/AAII_Financials/Quarterly/BYIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYIN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/BYIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BYIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>BYIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,8 +1199,14 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1193,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1400,8 +1485,14 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1541,8 +1644,14 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,8 +1697,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1870,8 +2015,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1964,60 +2121,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,11 +3022,11 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -2776,11 +3037,11 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,10 +3129,10 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -2883,16 +3156,22 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2903,10 +3182,10 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -2930,16 +3209,22 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3482,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3185,10 +3500,10 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -3212,16 +3527,22 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3768,14 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3442,10 +3789,10 @@
         <v>-1300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I72" s="3">
         <v>-1200</v>
@@ -3472,10 +3819,16 @@
         <v>-1200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3627,10 +3998,10 @@
         <v>-300</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-200</v>
@@ -3654,16 +4025,22 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3808,8 +4197,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>
